--- a/medicine/Enfance/Affaire_des_enfants_volés_du_franquisme/Affaire_des_enfants_volés_du_franquisme.xlsx
+++ b/medicine/Enfance/Affaire_des_enfants_volés_du_franquisme/Affaire_des_enfants_volés_du_franquisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Affaire_des_enfants_vol%C3%A9s_du_franquisme</t>
+          <t>Affaire_des_enfants_volés_du_franquisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’affaire des enfants volés du franquisme est une affaire d’État espagnole.
-Le sujet — initialement exhumé par un film[1], diffusé par la télévision espagnole puis, plus intensivement essaimé, à partir des années 2010[2],[3] — reste cependant tabou en Espagne[4]. Les victimes espèrent des suites judiciaires, via le dépôt de plusieurs plaintes[5],[2].
+Le sujet — initialement exhumé par un film, diffusé par la télévision espagnole puis, plus intensivement essaimé, à partir des années 2010, — reste cependant tabou en Espagne. Les victimes espèrent des suites judiciaires, via le dépôt de plusieurs plaintes,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Affaire_des_enfants_vol%C3%A9s_du_franquisme</t>
+          <t>Affaire_des_enfants_volés_du_franquisme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,18 +524,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1940 et 1950, voire jusqu’aux années 1980[6], plus de 300 000 enfants sont retirés à leurs mères[2],[7], pour des raisons idéologiques[2],[4], basées sur les thèses controversées d’un psychiatre, lui-même proche de Franco : le docteur Antonio Vallejo Nágera.
-Les estimations relatives au nombre réel de ces enlèvements seraient nettement sous-évaluées et pourraient même atteindre 300 000 victimes[6],[2],[4].
-Plus tard, dans des familles républicaines, les enfants sont déclarés comme étant mort-nés[2], puis placés dans des familles franquistes[2],[4],[5]. Cette pratique, quasi systématique, s’opère avec la complicité du personnel hospitalier, sous l’égide conjointe de diverses autorités religieuses[2],[4].
-Un premier procès s'est ouvert le 26 juin 2018 dans « l'affaire des bébés volés » contre le Dr Eduardo Vela, ancien gynécologue, accusé d'avoir volé un bébé en 1969 pour le confier à une famille adoptive après avoir déclaré à la mère biologique, que sa fille, Inés Madrigal, était décédée[8],[6].
-Idéologie
-Un film[3] relate et explore les expérimentations du docteur Vallejo : Les Enfants perdus du franquisme[1],[3]. Ce reportage décrit une situation expérimentale, dans laquelle les enfants des républicains ne peuvent rester avec leur mère génitrice au-delà de trois ans. Ces enfants sont ensuite pris en charge par une institution catholique, qui leur inculque une idéologie en tout point opposée à celle de leurs parents. Très souvent, d’ailleurs, ces derniers perdent leur trace. Sans aucun fondement scientifique, le rapport déclare :
-« […] Les relations intimes existant entre le marxisme et l’infériorité mentale sont évidentes et concluent, sur la base de ce postulat, que la mise à l’écart des sujets, dès l’enfance, pourrait affranchir la société de cette idéologie… »
-— Dr Antonio Vallejo Nágera, médecin psychiatre
-Vénalité
-Après la mort de Francisco Franco, le dessein, initialement idéologique et notamment basé sur les thèses susmentionnées, laisse subséquemment la place à une finalité essentiellement lucrative[2],[4],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1940 et 1950, voire jusqu’aux années 1980, plus de 300 000 enfants sont retirés à leurs mères pour des raisons idéologiques basées sur les thèses controversées d’un psychiatre, lui-même proche de Franco : le docteur Antonio Vallejo Nágera.
+Les estimations relatives au nombre réel de ces enlèvements seraient nettement sous-évaluées et pourraient même atteindre 300 000 victimes.
+Plus tard, dans des familles républicaines, les enfants sont déclarés comme étant mort-nés, puis placés dans des familles franquistes. Cette pratique, quasi systématique, s’opère avec la complicité du personnel hospitalier, sous l’égide conjointe de diverses autorités religieuses,.
+Un premier procès s'est ouvert le 26 juin 2018 dans « l'affaire des bébés volés » contre le Dr Eduardo Vela, ancien gynécologue, accusé d'avoir volé un bébé en 1969 pour le confier à une famille adoptive après avoir déclaré à la mère biologique, que sa fille, Inés Madrigal, était décédée,.
 </t>
         </is>
       </c>
@@ -534,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Affaire_des_enfants_vol%C3%A9s_du_franquisme</t>
+          <t>Affaire_des_enfants_volés_du_franquisme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,13 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Anadir</t>
+          <t>Historique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L’« association nationale des victimes d’adoptions illégales » — Anadir — s’est créée pour défendre les intérêts des victimes[5].
-</t>
+          <t>Idéologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un film relate et explore les expérimentations du docteur Vallejo : Les Enfants perdus du franquisme,. Ce reportage décrit une situation expérimentale, dans laquelle les enfants des républicains ne peuvent rester avec leur mère génitrice au-delà de trois ans. Ces enfants sont ensuite pris en charge par une institution catholique, qui leur inculque une idéologie en tout point opposée à celle de leurs parents. Très souvent, d’ailleurs, ces derniers perdent leur trace. Sans aucun fondement scientifique, le rapport déclare :
+« […] Les relations intimes existant entre le marxisme et l’infériorité mentale sont évidentes et concluent, sur la base de ce postulat, que la mise à l’écart des sujets, dès l’enfance, pourrait affranchir la société de cette idéologie… »
+— Dr Antonio Vallejo Nágera, médecin psychiatre</t>
         </is>
       </c>
     </row>
@@ -565,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Affaire_des_enfants_vol%C3%A9s_du_franquisme</t>
+          <t>Affaire_des_enfants_volés_du_franquisme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,15 +595,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Filmographie</t>
+          <t>Historique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(fr + es + en) [vidéo] Les enfants volés – ¿Donde estàs? - documentaire de Sandrine Mercier et Juan Gordillo Hidalgo - Marmitafilms et Veo Productions 2012, durée : 54 min[9].
-(es) Els nens perduts del franquisme – Les enfants perdus du franquisme. Réalisation : Ricard Belis i Garcia. Musique : Victor Cortina. Production : Muntsa Tarres, 2004. Durée : 30 min.
-(fr) [vidéo] Reportage sur les enfants volés du franquisme : l’un des derniers grands tabous d’Espagne, 19h30 le journal, tsr.ch, 10 janvier 2010.
-(fr) [vidéo] Histoire vivante — Les enfants volés du franquisme, tsr.ch (via le cache de google), diffusé le 7 août 2011. Durée : 57:18. N. B. Le délai de diffusion, en streaming vidéo, est échu depuis le 14 août 2011.</t>
+          <t>Vénalité</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la mort de Francisco Franco, le dessein, initialement idéologique et notamment basé sur les thèses susmentionnées, laisse subséquemment la place à une finalité essentiellement lucrative.
+</t>
         </is>
       </c>
     </row>
@@ -598,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Affaire_des_enfants_vol%C3%A9s_du_franquisme</t>
+          <t>Affaire_des_enfants_volés_du_franquisme</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,10 +632,80 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Anadir</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’« association nationale des victimes d’adoptions illégales » — Anadir — s’est créée pour défendre les intérêts des victimes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Affaire_des_enfants_volés_du_franquisme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affaire_des_enfants_vol%C3%A9s_du_franquisme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(fr + es + en) [vidéo] Les enfants volés – ¿Donde estàs? - documentaire de Sandrine Mercier et Juan Gordillo Hidalgo - Marmitafilms et Veo Productions 2012, durée : 54 min.
+(es) Els nens perduts del franquisme – Les enfants perdus du franquisme. Réalisation : Ricard Belis i Garcia. Musique : Victor Cortina. Production : Muntsa Tarres, 2004. Durée : 30 min.
+(fr) [vidéo] Reportage sur les enfants volés du franquisme : l’un des derniers grands tabous d’Espagne, 19h30 le journal, tsr.ch, 10 janvier 2010.
+(fr) [vidéo] Histoire vivante — Les enfants volés du franquisme, tsr.ch (via le cache de google), diffusé le 7 août 2011. Durée : 57:18. N. B. Le délai de diffusion, en streaming vidéo, est échu depuis le 14 août 2011.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Affaire_des_enfants_volés_du_franquisme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Affaire_des_enfants_vol%C3%A9s_du_franquisme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Dans la littérature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Angor, thriller de Franck Thilliez, Fleuve noir, 2014
 Mala vida, roman de Marc Fernandez
